--- a/medicine/Enfance/Melvin_Burgess/Melvin_Burgess.xlsx
+++ b/medicine/Enfance/Melvin_Burgess/Melvin_Burgess.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melvin Burgess, né le 26 avril 1954, est un écrivain britannique. Il est auteur de littérature d'enfance et de jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Melvin Burgess quitte l'école à 18 ans et entame une période durant laquelle il partage son temps entre petits boulots et chômage. Il se lance alors dans l'écriture mais il ne commence à être publié que dans les années 1990.
 Melvin Burgess connait un succès important lors de la parution de Junk en 1996. Le roman raconte le parcours d'adolescentes expérimentant la consommation d'héroïne. L'ouvrage reçoit la Médaille Carnegie 1996.
-En 2018, il est l'écrivain sélectionné pour représenter son pays, le Royaume-Uni, pour le Prix Hans-Christian-Andersen[1], dans la catégorie Auteur, prix international danois.
+En 2018, il est l'écrivain sélectionné pour représenter son pays, le Royaume-Uni, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur, prix international danois.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Éditions originales
-The Cry of the Wolf, Andersen Press, 1990
+          <t>Éditions originales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Cry of the Wolf, Andersen Press, 1990
 An Angel for May, Andersen, 1992
 Burning Issy, Andersen, 1992
 The Baby and Fly Pie, Andersen, 1993
@@ -571,9 +590,43 @@
 Kill All Enemies, Puffin Books, 2011
 The Hit, Chicken House, 2013
 Participation
-Collectif, Losing it
-Traductions en français
-Isa la sorcière, Hachette jeunesse, 1994
+Collectif, Losing it</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Melvin_Burgess</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melvin_Burgess</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions en français</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Isa la sorcière, Hachette jeunesse, 1994
 Le Cri du loup, Pocket jeunesse, 1996
 Junk, Folio, 1998
 Un été au bord du fleuve, Gallimard, coll. Pages blanches, 1999
